--- a/dataset/Movies Critics Love, but Audiences Really Didn't.xlsx
+++ b/dataset/Movies Critics Love, but Audiences Really Didn't.xlsx
@@ -1099,10 +1099,10 @@
   <dimension ref="A1:H94"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B71" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B80" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G65" sqref="G65"/>
+      <selection pane="bottomRight" activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1111,13 +1111,13 @@
     <col min="2" max="2" width="9.5703125" customWidth="1"/>
     <col min="3" max="3" width="9.28515625" customWidth="1"/>
     <col min="4" max="4" width="9.42578125" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" customWidth="1"/>
-    <col min="6" max="6" width="8" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" customWidth="1"/>
+    <col min="6" max="6" width="7" customWidth="1"/>
     <col min="7" max="7" width="31.7109375" customWidth="1"/>
     <col min="8" max="8" width="24.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
